--- a/biology/Zoologie/Ixodes_hexagonus/Ixodes_hexagonus.xlsx
+++ b/biology/Zoologie/Ixodes_hexagonus/Ixodes_hexagonus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixodes hexagonus, la tique du hérisson, est une espèce d'acariens de la famille des Ixodidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce parasite les Erinaceinae, les Canidae et les Mustelidae[1] et notamment le hérisson commun.
-Elle est un vecteur de l'encéphalite à tiques[1].
-Cette espèce a également été trouvée sur le castor d'Europe (Castor fiber) en Pologne, espèce dont le mode de vie est semi-aquatique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce parasite les Erinaceinae, les Canidae et les Mustelidae et notamment le hérisson commun.
+Elle est un vecteur de l'encéphalite à tiques.
+Cette espèce a également été trouvée sur le castor d'Europe (Castor fiber) en Pologne, espèce dont le mode de vie est semi-aquatique.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leach, 1815 : A tabular view of the external characters of four classes of animals, which Linné arranged under Insecta; with the distribution of the genera composing three of these classes into orders, and descriptions of several new genera and species. Transactions of the Linnean Society of London, vol. 11, p. 306–400 (texte intégral).</t>
         </is>
